--- a/biology/Zoologie/Buthacus_yotvatensis/Buthacus_yotvatensis.xlsx
+++ b/biology/Zoologie/Buthacus_yotvatensis/Buthacus_yotvatensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus yotvatensis est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Israël et en Jordanie entre −294 et 345 m d'altitude dans l'Arabah et le Néguev[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Israël et en Jordanie entre −294 et 345 m d'altitude dans l'Arabah et le Néguev,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 61,9 à 71,9 mm et les femelles de 71,7 à 85,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 61,9 à 71,9 mm et les femelles de 71,7 à 85,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Levy, Amitai et Shulov en 1973. Elle est placée en synonymie avec Buthacus macrocentrus par Kovařík en 2005[3]. Elle est relevée de synonymie par Cain, Gefen et Prendini en 2021[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Levy, Amitai et Shulov en 1973. Elle est placée en synonymie avec Buthacus macrocentrus par Kovařík en 2005. Elle est relevée de synonymie par Cain, Gefen et Prendini en 2021.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de yotvat[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Yotvata.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Levy, Amitai &amp; Shulov, 1973 : « New scorpions from Israel, Jordan and Arabia. » Zoological Journal of the Linnean Society, vol. 52, no 2, p. 113-140.</t>
         </is>
